--- a/Twitter Data.xlsx
+++ b/Twitter Data.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Output" sheetId="3" r:id="rId2"/>
-    <sheet name="Errors" sheetId="2" r:id="rId3"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
+    <sheet name="Errors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -30,69 +30,63 @@
     <t>dailystarnews</t>
   </si>
   <si>
-    <t xml:space="preserve">Failed to get the final url for </t>
+    <t>SiyamAh66347457</t>
+  </si>
+  <si>
+    <t>Screen Name</t>
+  </si>
+  <si>
+    <t>Name / ID</t>
+  </si>
+  <si>
+    <t>Followers</t>
+  </si>
+  <si>
+    <t>Following</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Joined Date</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>Resolution Days 2021 is here to make a Revolution! Check it out Now!</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>https://t.co/INfSv8tvj9</t>
+  </si>
+  <si>
+    <t>17 July 2009</t>
+  </si>
+  <si>
+    <t>Bangladesh Cricket</t>
+  </si>
+  <si>
+    <t>The Official Twitter of Bangladesh Cricket.</t>
+  </si>
+  <si>
+    <t>SBNCS, Mirpur-2, Dhaka-1216</t>
   </si>
   <si>
     <t>https://t.co/bCwTBCUXj7</t>
   </si>
   <si>
-    <t>Due to</t>
-  </si>
-  <si>
-    <t>HTTPSConnectionPool(host='www.tigercricket.com.bd', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000002C1CD443790&gt;: Failed to establish a new connection: [WinError 10060] A connection attempt failed because the connected party did not properly respond after a period of time, or established connection failed because connected host has failed to respond'))</t>
-  </si>
-  <si>
-    <t>Screen Name</t>
-  </si>
-  <si>
-    <t>Name / ID</t>
-  </si>
-  <si>
-    <t>Followers</t>
-  </si>
-  <si>
-    <t>Following</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Joined Date</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>GeeksforGeeks</t>
-  </si>
-  <si>
-    <t>Your friendly neighborhood assignment helper</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>https://practice.geeksforgeeks.org/courses</t>
-  </si>
-  <si>
-    <t>17 July 2009</t>
-  </si>
-  <si>
-    <t>Bangladesh Cricket</t>
-  </si>
-  <si>
-    <t>The Official Twitter of Bangladesh Cricket.</t>
-  </si>
-  <si>
-    <t>SBNCS, Mirpur-2, Dhaka-1216</t>
-  </si>
-  <si>
     <t>13 June 2011</t>
   </si>
   <si>
@@ -109,13 +103,19 @@
   </si>
   <si>
     <t>27 September 2009</t>
+  </si>
+  <si>
+    <t>Siyam Ahmed</t>
+  </si>
+  <si>
+    <t>29 September 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF8899A6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -184,7 +190,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -519,6 +526,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -527,7 +539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
@@ -540,32 +552,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,25 +585,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>22382</v>
+        <v>22702</v>
       </c>
       <c r="D2">
         <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -602,25 +614,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>2624960</v>
+        <v>2628515</v>
       </c>
       <c r="D3">
         <v>41</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -631,28 +643,48 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>860611</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
-        <v>858179</v>
-      </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -662,33 +694,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Twitter Data.xlsx
+++ b/Twitter Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Twitter Screen Names</t>
   </si>
@@ -60,16 +60,22 @@
     <t>Verified</t>
   </si>
   <si>
+    <t>Status Available</t>
+  </si>
+  <si>
+    <t>Statuses Count</t>
+  </si>
+  <si>
     <t>GeeksforGeeks</t>
   </si>
   <si>
-    <t>Resolution Days 2021 is here to make a Revolution! Check it out Now!</t>
+    <t>Your friendly neighborhood assignment helper</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>https://t.co/INfSv8tvj9</t>
+    <t>https://practice.geeksforgeeks.org/</t>
   </si>
   <si>
     <t>17 July 2009</t>
@@ -99,7 +105,7 @@
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>https://www.thedailystar.net/</t>
+    <t>https://t.co/eYRpUW9PRJ</t>
   </si>
   <si>
     <t>27 September 2009</t>
@@ -109,6 +115,15 @@
   </si>
   <si>
     <t>29 September 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to get the final url for </t>
+  </si>
+  <si>
+    <t>Due to</t>
+  </si>
+  <si>
+    <t>HTTPSConnectionPool(host='www.tigercricket.com.bd', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x00000221CBE8E670&gt;: Failed to establish a new connection: [WinError 10060] A connection attempt failed because the connected party did not properly respond after a period of time, or established connection failed because connected host has failed to respond'))</t>
   </si>
 </sst>
 </file>
@@ -539,19 +554,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="20" customWidth="1"/>
+    <col min="1" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -579,100 +594,124 @@
       <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>22702</v>
+        <v>22790</v>
       </c>
       <c r="D2">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>14623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>2628515</v>
+        <v>2635053</v>
       </c>
       <c r="D3">
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>29352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>860611</v>
+        <v>864875</v>
       </c>
       <c r="D4">
         <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>154358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -681,10 +720,16 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -694,12 +739,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Twitter Data.xlsx
+++ b/Twitter Data.xlsx
@@ -1,173 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Output" sheetId="2" r:id="rId2"/>
-    <sheet name="Errors" sheetId="3" r:id="rId3"/>
+    <sheet name="Input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Errors" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
-  <si>
-    <t>Twitter Screen Names</t>
-  </si>
-  <si>
-    <t>geeksforgeeks</t>
-  </si>
-  <si>
-    <t>BCBtigers</t>
-  </si>
-  <si>
-    <t>dailystarnews</t>
-  </si>
-  <si>
-    <t>SiyamAh66347457</t>
-  </si>
-  <si>
-    <t>Screen Name</t>
-  </si>
-  <si>
-    <t>Name / ID</t>
-  </si>
-  <si>
-    <t>Followers</t>
-  </si>
-  <si>
-    <t>Following</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Joined Date</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>Status Available</t>
-  </si>
-  <si>
-    <t>Statuses Count</t>
-  </si>
-  <si>
-    <t>GeeksforGeeks</t>
-  </si>
-  <si>
-    <t>Your friendly neighborhood assignment helper</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>https://practice.geeksforgeeks.org/</t>
-  </si>
-  <si>
-    <t>17 July 2009</t>
-  </si>
-  <si>
-    <t>Bangladesh Cricket</t>
-  </si>
-  <si>
-    <t>The Official Twitter of Bangladesh Cricket.</t>
-  </si>
-  <si>
-    <t>SBNCS, Mirpur-2, Dhaka-1216</t>
-  </si>
-  <si>
-    <t>https://t.co/bCwTBCUXj7</t>
-  </si>
-  <si>
-    <t>13 June 2011</t>
-  </si>
-  <si>
-    <t>The Daily Star</t>
-  </si>
-  <si>
-    <t>Bangladesh's largest English Daily. The latest &amp; breaking news, features, analysis and more from @dailystarnews.</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>https://t.co/eYRpUW9PRJ</t>
-  </si>
-  <si>
-    <t>27 September 2009</t>
-  </si>
-  <si>
-    <t>Siyam Ahmed</t>
-  </si>
-  <si>
-    <t>29 September 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failed to get the final url for </t>
-  </si>
-  <si>
-    <t>Due to</t>
-  </si>
-  <si>
-    <t>HTTPSConnectionPool(host='www.tigercricket.com.bd', port=443): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x00000221CBE8E670&gt;: Failed to establish a new connection: [WinError 10060] A connection attempt failed because the connected party did not properly respond after a period of time, or established connection failed because connected host has failed to respond'))</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color theme="1"/>
+      <sz val="15"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF8899A6"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <color rgb="FF8899A6"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -180,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8"/>
+        <fgColor rgb="00E8E8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -197,27 +83,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -264,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,43 +455,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col width="27.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Twitter Screen Names</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>geeksforgeeks</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>BCBtigers</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>dailystarnews</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>siyam_88</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -553,78 +515,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="20" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>22790</v>
-      </c>
-      <c r="D2">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Screen Name</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Name / ID</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Followers</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Following</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>Joined Date</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>Status Available</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>Statuses Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>geeksforgeeks</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GeeksforGeeks</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26036</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wear a Mask, Stay Safe! 😷</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://taplink.cc/geeks_for_geeks</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17 July 2009</t>
+        </is>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -632,34 +642,46 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>14623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>2635053</v>
-      </c>
-      <c r="D3">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
+      <c r="K2" t="n">
+        <v>15737</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BCBtigers</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bangladesh Cricket</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2766104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The Official Twitter of Bangladesh Cricket.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SBNCS, Mirpur-2, Dhaka-1216</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://t.co/bCwTBCUXj7</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 June 2011</t>
+        </is>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -667,34 +689,46 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>29352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>864875</v>
-      </c>
-      <c r="D4">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
+      <c r="K3" t="n">
+        <v>30643</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dailystarnews</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Daily Star</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>976063</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bangladesh's largest English Daily. The latest &amp; breaking news, features, analysis and more from @dailystarnews.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.thedailystar.net/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>27 September 2009</t>
+        </is>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -702,25 +736,33 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>154358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
+      <c r="K4" t="n">
+        <v>166257</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>siyam_88</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Siyam Ahmed</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>29 September 2020</t>
+        </is>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -728,7 +770,7 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -738,28 +780,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>